--- a/Thesis_project/01_data-input/wiiw/gdp.xlsx
+++ b/Thesis_project/01_data-input/wiiw/gdp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\01_data-input\wiiw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\Thesis_project\01_data-input\wiiw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C393AC41-A0EF-4B14-8EB5-2F11086EA699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51062B36-637F-4891-A998-1EEA35F47AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
   <si>
     <t>wiiw Annual Database</t>
   </si>
@@ -165,6 +165,30 @@
   </si>
   <si>
     <t>http://wiiw.ac.at/annual-database.html</t>
+  </si>
+  <si>
+    <t>NCU</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Million</t>
+  </si>
+  <si>
+    <t>AL00</t>
+  </si>
+  <si>
+    <t>BA00</t>
+  </si>
+  <si>
+    <t>XK00</t>
+  </si>
+  <si>
+    <t>MD00</t>
   </si>
 </sst>
 </file>
@@ -1658,11 +1682,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBE8A58-0FB6-4ED3-A08C-4ED405BD1EC0}">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD17"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1670,11 +1694,12 @@
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
     <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="25" width="10" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1687,70 +1712,73 @@
       <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="2">
         <v>2000</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>2001</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>2002</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>2003</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>2004</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>2005</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>2006</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>2007</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>2008</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>2009</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>2010</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>2011</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>2012</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>2013</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>2014</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>2015</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>2016</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>2017</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>2018</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -1759,72 +1787,75 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="3">
         <v>501199</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>563448.80000000005</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>610494.30000000005</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>677737.5</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>737655.5</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>804163.2</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>872735.1</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>965527.8</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>1080675.8999999999</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>1143936.5</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
         <v>1239644.6000000001</v>
       </c>
-      <c r="P2" s="3">
+      <c r="Q2" s="3">
         <v>1300624.1000000001</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="R2" s="3">
         <v>1332811</v>
       </c>
-      <c r="R2" s="3">
+      <c r="S2" s="3">
         <v>1350052.6</v>
       </c>
-      <c r="S2" s="3">
+      <c r="T2" s="3">
         <v>1395304.6</v>
       </c>
-      <c r="T2" s="3">
+      <c r="U2" s="3">
         <v>1434306.5</v>
       </c>
-      <c r="U2" s="3">
+      <c r="V2" s="3">
         <v>1472479.1</v>
       </c>
-      <c r="V2" s="3">
+      <c r="W2" s="3">
         <v>1550645.5</v>
       </c>
-      <c r="W2" s="3">
+      <c r="X2" s="3">
         <v>1636731.3</v>
       </c>
-      <c r="X2" s="3">
+      <c r="Y2" s="3">
         <v>1691903.4</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1833,72 +1864,75 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="3">
         <v>3780.3514859000002</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>4385.8394956000002</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>4612.3776065000002</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>4928.6415532999999</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>5777.8295606000001</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>6475.2653192999996</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>7090.7954176000003</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>7809.8180052999996</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>8800.2923453000003</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>8662.2482204999997</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
         <v>8996.6223964000001</v>
       </c>
-      <c r="P3" s="3">
+      <c r="Q3" s="3">
         <v>9268.3253758999999</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="R3" s="3">
         <v>9585.8098389000006</v>
       </c>
-      <c r="R3" s="3">
+      <c r="S3" s="3">
         <v>9625.3571938000005</v>
       </c>
-      <c r="S3" s="3">
+      <c r="T3" s="3">
         <v>9968.5975565999997</v>
       </c>
-      <c r="T3" s="3">
+      <c r="U3" s="3">
         <v>10264.108344099999</v>
       </c>
-      <c r="U3" s="3">
+      <c r="V3" s="3">
         <v>10719.8536692</v>
       </c>
-      <c r="V3" s="3">
+      <c r="W3" s="3">
         <v>11559.042117000001</v>
       </c>
-      <c r="W3" s="3">
+      <c r="X3" s="3">
         <v>12828.053139</v>
       </c>
-      <c r="X3" s="3">
+      <c r="Y3" s="3">
         <v>13754.193968</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -1907,72 +1941,75 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="3">
         <v>11819.6</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>12678.2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>13982.4</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>14728</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>15998.1</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>17650.3</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>20057.2</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>22547.9</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>25519.3</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>24798.5</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>25365</v>
       </c>
-      <c r="P4" s="3">
+      <c r="Q4" s="3">
         <v>26231.3</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R4" s="3">
         <v>26222.7</v>
       </c>
-      <c r="R4" s="3">
+      <c r="S4" s="3">
         <v>26778.799999999999</v>
       </c>
-      <c r="S4" s="3">
+      <c r="T4" s="3">
         <v>27358.7</v>
       </c>
-      <c r="T4" s="3">
+      <c r="U4" s="3">
         <v>28928.9</v>
       </c>
-      <c r="U4" s="3">
+      <c r="V4" s="3">
         <v>30265.1</v>
       </c>
-      <c r="V4" s="3">
+      <c r="W4" s="3">
         <v>31802.7</v>
       </c>
-      <c r="W4" s="3">
+      <c r="X4" s="3">
         <v>33941.800000000003</v>
       </c>
-      <c r="X4" s="3">
+      <c r="Y4" s="3">
         <v>35784.9</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -1981,72 +2018,75 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="3">
         <v>6043.2655189999996</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>6482.2607281999999</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>7149.0875996000004</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>7530.3068262999996</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>8179.6986446000001</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>9024.4550906999993</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>10255.0835195</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>11528.558208</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>13047.8109038</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>12679.2717158</v>
       </c>
-      <c r="O5" s="3">
+      <c r="P5" s="3">
         <v>12968.9185665</v>
       </c>
-      <c r="P5" s="3">
+      <c r="Q5" s="3">
         <v>13411.850723199999</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="R5" s="3">
         <v>13407.453613</v>
       </c>
-      <c r="R5" s="3">
+      <c r="S5" s="3">
         <v>13691.7830282</v>
       </c>
-      <c r="S5" s="3">
+      <c r="T5" s="3">
         <v>13988.2811901</v>
       </c>
-      <c r="T5" s="3">
+      <c r="U5" s="3">
         <v>14791.111701899999</v>
       </c>
-      <c r="U5" s="3">
+      <c r="V5" s="3">
         <v>15474.2999136</v>
       </c>
-      <c r="V5" s="3">
+      <c r="W5" s="3">
         <v>16260.4623101</v>
       </c>
-      <c r="W5" s="3">
+      <c r="X5" s="3">
         <v>17354.166773199999</v>
       </c>
-      <c r="X5" s="3">
+      <c r="Y5" s="3">
         <v>18296.528839400002</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -2055,72 +2095,75 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="3">
         <v>2417</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>2831</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>2862</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>2967</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>2911.8119999999999</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>3002.7640000000001</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>3120.4110000000001</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>3460.768</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>3537.6</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="3">
         <v>3610.4</v>
       </c>
-      <c r="O6" s="3">
+      <c r="P6" s="3">
         <v>4031</v>
       </c>
-      <c r="P6" s="3">
+      <c r="Q6" s="3">
         <v>4555.8999999999996</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="R6" s="3">
         <v>4797.3</v>
       </c>
-      <c r="R6" s="3">
+      <c r="S6" s="3">
         <v>5071.3</v>
       </c>
-      <c r="S6" s="3">
+      <c r="T6" s="3">
         <v>5325.1</v>
       </c>
-      <c r="T6" s="3">
+      <c r="U6" s="3">
         <v>5674.4</v>
       </c>
-      <c r="U6" s="3">
+      <c r="V6" s="3">
         <v>6037.3</v>
       </c>
-      <c r="V6" s="3">
+      <c r="W6" s="3">
         <v>6356.5</v>
       </c>
-      <c r="W6" s="3">
+      <c r="X6" s="3">
         <v>6671.5</v>
       </c>
-      <c r="X6" s="3">
+      <c r="Y6" s="3">
         <v>7056.2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -2129,72 +2172,75 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="3">
         <v>2417</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>2831</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>2862</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>2967</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>2911.8119999999999</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>3002.7640000000001</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>3120.4110000000001</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>3460.768</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>3537.6</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>3610.4</v>
       </c>
-      <c r="O7" s="3">
+      <c r="P7" s="3">
         <v>4031</v>
       </c>
-      <c r="P7" s="3">
+      <c r="Q7" s="3">
         <v>4555.8999999999996</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="R7" s="3">
         <v>4797.3</v>
       </c>
-      <c r="R7" s="3">
+      <c r="S7" s="3">
         <v>5071.3</v>
       </c>
-      <c r="S7" s="3">
+      <c r="T7" s="3">
         <v>5325.1</v>
       </c>
-      <c r="T7" s="3">
+      <c r="U7" s="3">
         <v>5674.4</v>
       </c>
-      <c r="U7" s="3">
+      <c r="V7" s="3">
         <v>6037.3</v>
       </c>
-      <c r="V7" s="3">
+      <c r="W7" s="3">
         <v>6356.5</v>
       </c>
-      <c r="W7" s="3">
+      <c r="X7" s="3">
         <v>6671.5</v>
       </c>
-      <c r="X7" s="3">
+      <c r="Y7" s="3">
         <v>7056.2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -2203,72 +2249,75 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="3">
         <v>16019.558000000001</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19051.530999999999</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22555.858</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>27618.918000000001</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>32031.776999999998</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>37651.868999999999</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>44754.366999999998</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>53429.571000000004</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>62921.544999999998</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>60429.803</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>86275.376999999993</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>98772.813999999998</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>105480.18399999999</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>119532.871</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>131964.258</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>146740.20499999999</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>159010.41899999999</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>176007.29199999999</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>189062.62700000001</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>206256.239</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
@@ -2277,363 +2326,70 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="3">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="3">
         <v>1393.6715821</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1653.2190490999999</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1757.549109</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1754.6627447000001</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2089.6740080999998</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2398.5443183000002</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2713.7345226000002</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3218.9203305999999</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4114.7783750999997</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3892.4690172999999</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5260.8541114</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6045.9948949999998</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6777.5382954999995</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7147.3425176999999</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7082.6293331999996</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7021.7179907999998</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7209.7873932000002</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8450.4322025000001</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>9527.3494018000001</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>10483.642911200001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1065.6990000000001</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1295.1110000000001</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1360.3530000000001</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1510.1279999999999</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1669.7829999999999</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1814.9939999999999</v>
-      </c>
-      <c r="K10" s="3">
-        <v>2169.6</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2689.1</v>
-      </c>
-      <c r="M10" s="3">
-        <v>3103.3</v>
-      </c>
-      <c r="N10" s="3">
-        <v>2993.9</v>
-      </c>
-      <c r="O10" s="3">
-        <v>3125.1</v>
-      </c>
-      <c r="P10" s="3">
-        <v>3264.8</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>3181.5</v>
-      </c>
-      <c r="R10" s="3">
-        <v>3362.5</v>
-      </c>
-      <c r="S10" s="3">
-        <v>3457.9</v>
-      </c>
-      <c r="T10" s="3">
-        <v>3654.5</v>
-      </c>
-      <c r="U10" s="3">
-        <v>3954.2</v>
-      </c>
-      <c r="V10" s="3">
-        <v>4299.1000000000004</v>
-      </c>
-      <c r="W10" s="3">
-        <v>4663.1000000000004</v>
-      </c>
-      <c r="X10" s="3">
-        <v>4950.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1065.6990000000001</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1295.1110000000001</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1360.3530000000001</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1510.1279999999999</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1669.7829999999999</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1814.9939999999999</v>
-      </c>
-      <c r="K11" s="3">
-        <v>2169.6</v>
-      </c>
-      <c r="L11" s="3">
-        <v>2689.1</v>
-      </c>
-      <c r="M11" s="3">
-        <v>3103.3</v>
-      </c>
-      <c r="N11" s="3">
-        <v>2993.9</v>
-      </c>
-      <c r="O11" s="3">
-        <v>3125.1</v>
-      </c>
-      <c r="P11" s="3">
-        <v>3264.8</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>3181.5</v>
-      </c>
-      <c r="R11" s="3">
-        <v>3362.5</v>
-      </c>
-      <c r="S11" s="3">
-        <v>3457.9</v>
-      </c>
-      <c r="T11" s="3">
-        <v>3654.5</v>
-      </c>
-      <c r="U11" s="3">
-        <v>3954.2</v>
-      </c>
-      <c r="V11" s="3">
-        <v>4299.1000000000004</v>
-      </c>
-      <c r="W11" s="3">
-        <v>4663.1000000000004</v>
-      </c>
-      <c r="X11" s="3">
-        <v>4950.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="3">
-        <v>248646.39999999999</v>
-      </c>
-      <c r="F12" s="3">
-        <v>252393.5</v>
-      </c>
-      <c r="G12" s="3">
-        <v>258580.7</v>
-      </c>
-      <c r="H12" s="3">
-        <v>268693.59999999998</v>
-      </c>
-      <c r="I12" s="3">
-        <v>280786</v>
-      </c>
-      <c r="J12" s="3">
-        <v>308447.2</v>
-      </c>
-      <c r="K12" s="3">
-        <v>334840.09999999998</v>
-      </c>
-      <c r="L12" s="3">
-        <v>372889.2</v>
-      </c>
-      <c r="M12" s="3">
-        <v>414890.1</v>
-      </c>
-      <c r="N12" s="3">
-        <v>414621.9</v>
-      </c>
-      <c r="O12" s="3">
-        <v>437295.5</v>
-      </c>
-      <c r="P12" s="3">
-        <v>464186.3</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>466702.7</v>
-      </c>
-      <c r="R12" s="3">
-        <v>501891</v>
-      </c>
-      <c r="S12" s="3">
-        <v>527631</v>
-      </c>
-      <c r="T12" s="3">
-        <v>558953.6</v>
-      </c>
-      <c r="U12" s="3">
-        <v>594794.9</v>
-      </c>
-      <c r="V12" s="3">
-        <v>618105.5</v>
-      </c>
-      <c r="W12" s="3">
-        <v>660878.19999999995</v>
-      </c>
-      <c r="X12" s="3">
-        <v>692682.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="3">
-        <v>4094.5826889999998</v>
-      </c>
-      <c r="F13" s="3">
-        <v>4143.5011516000004</v>
-      </c>
-      <c r="G13" s="3">
-        <v>4240.5155250999996</v>
-      </c>
-      <c r="H13" s="3">
-        <v>4385.8962410000004</v>
-      </c>
-      <c r="I13" s="3">
-        <v>4577.7440118000004</v>
-      </c>
-      <c r="J13" s="3">
-        <v>5032.0113546000002</v>
-      </c>
-      <c r="K13" s="3">
-        <v>5472.1733758999999</v>
-      </c>
-      <c r="L13" s="3">
-        <v>6094.4844053999996</v>
-      </c>
-      <c r="M13" s="3">
-        <v>6772.1016705000002</v>
-      </c>
-      <c r="N13" s="3">
-        <v>6766.5090183000002</v>
-      </c>
-      <c r="O13" s="3">
-        <v>7108.2767655999996</v>
-      </c>
-      <c r="P13" s="3">
-        <v>7544.1627715000004</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>7584.7645763</v>
-      </c>
-      <c r="R13" s="3">
-        <v>8149.5656410000001</v>
-      </c>
-      <c r="S13" s="3">
-        <v>8562.0468516000001</v>
-      </c>
-      <c r="T13" s="3">
-        <v>9072.3020240000005</v>
-      </c>
-      <c r="U13" s="3">
-        <v>9656.4667872999999</v>
-      </c>
-      <c r="V13" s="3">
-        <v>10038.3030693</v>
-      </c>
-      <c r="W13" s="3">
-        <v>10743.977955300001</v>
-      </c>
-      <c r="X13" s="3">
-        <v>11262.037850000001</v>
       </c>
     </row>
   </sheetData>
